--- a/results/mp/logistic/corona/confidence/168/desired-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,54 +46,57 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>low</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
@@ -112,133 +115,151 @@
     <t>prices</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>help</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>important</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>increased</t>
   </si>
   <si>
     <t>shop</t>
@@ -247,37 +268,31 @@
     <t>stay</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>your</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>consumer</t>
+    <t>grocery</t>
   </si>
   <si>
     <t>are</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
     <t>for</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>,</t>
+    <t>in</t>
   </si>
 </sst>
 </file>
@@ -635,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9459459459459459</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -804,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9210526315789473</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>0.9416666666666667</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8595890410958904</v>
+        <v>0.8424657534246576</v>
       </c>
       <c r="C6">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D6">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9162303664921466</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -907,10 +922,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>0.9112271540469974</v>
+        <v>0.890625</v>
       </c>
       <c r="L7">
-        <v>349</v>
+        <v>114</v>
       </c>
       <c r="M7">
-        <v>349</v>
+        <v>114</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,7 +969,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.775</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C8">
         <v>31</v>
@@ -972,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1019,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7692307692307693</v>
+        <v>0.687984496124031</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>355</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>355</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>0.8983050847457628</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1069,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6705426356589147</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C10">
-        <v>346</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>346</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>0.8928571428571429</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6613756613756614</v>
+        <v>0.6772486772486772</v>
       </c>
       <c r="C11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>0.8867924528301887</v>
+        <v>0.8661971830985915</v>
       </c>
       <c r="L11">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="M11">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6101694915254238</v>
+        <v>0.625</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>0.8732394366197183</v>
+        <v>0.8625</v>
       </c>
       <c r="L12">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="M12">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5973154362416108</v>
+        <v>0.6174496644295302</v>
       </c>
       <c r="C13">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D13">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="L13">
         <v>50</v>
       </c>
-      <c r="K13">
-        <v>0.8625</v>
-      </c>
-      <c r="L13">
-        <v>138</v>
-      </c>
       <c r="M13">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5882352941176471</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>0.8448275862068966</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5444444444444444</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="C15">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="D15">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K15">
-        <v>0.84375</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L15">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="M15">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.509090909090909</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K16">
-        <v>0.8414634146341463</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L16">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M16">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,38 +1419,38 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="C17">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>43</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>32</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17">
+        <v>0.8484848484848485</v>
+      </c>
+      <c r="L17">
         <v>28</v>
       </c>
-      <c r="D17">
+      <c r="M17">
         <v>28</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>28</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17">
-        <v>0.8297872340425532</v>
-      </c>
-      <c r="L17">
-        <v>39</v>
-      </c>
-      <c r="M17">
-        <v>39</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -1446,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1469,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4933333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K18">
-        <v>0.8125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,37 +1519,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4727272727272727</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C19">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>26</v>
       </c>
-      <c r="D19">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>29</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K19">
-        <v>0.8095238095238095</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L19">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1575,16 +1590,16 @@
         <v>48</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K20">
-        <v>0.8055555555555556</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3766233766233766</v>
+        <v>0.425</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K21">
-        <v>0.7692307692307693</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,13 +1669,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3333333333333333</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="C22">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1687,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K22">
-        <v>0.7450980392156863</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,13 +1719,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2600536193029491</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C23">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D23">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1722,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K23">
-        <v>0.74</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L23">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1754,13 +1769,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.13</v>
+        <v>0.2680965147453083</v>
       </c>
       <c r="C24">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="D24">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1772,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K24">
-        <v>0.7382352941176471</v>
+        <v>0.7278911564625851</v>
       </c>
       <c r="L24">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="M24">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1793,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,13 +1819,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.09215017064846416</v>
+        <v>0.15</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1822,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K25">
-        <v>0.725</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1846,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,37 +1869,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.03626943005181347</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E26">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="F26">
-        <v>0.9299999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1116</v>
+        <v>264</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K26">
-        <v>0.723404255319149</v>
+        <v>0.725</v>
       </c>
       <c r="L26">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1896,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,37 +1919,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.02457161332040091</v>
+        <v>0.0457685664939551</v>
       </c>
       <c r="C27">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D27">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E27">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="F27">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>3017</v>
+        <v>1105</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K27">
-        <v>0.7074829931972789</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L27">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="M27">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1943,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1954,49 +1969,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01946677951756242</v>
+        <v>0.03351718285956724</v>
       </c>
       <c r="C28">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D28">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="E28">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="F28">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2317</v>
+        <v>2278</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K28">
-        <v>0.698744769874477</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L28">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M28">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2004,37 +2019,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01642421398404505</v>
+        <v>0.0304305600517967</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="D29">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="E29">
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
       <c r="F29">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2096</v>
+        <v>2995</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K29">
-        <v>0.676923076923077</v>
+        <v>0.68</v>
       </c>
       <c r="L29">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2046,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2054,37 +2069,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0135312090790048</v>
+        <v>0.02458628841607565</v>
       </c>
       <c r="C30">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D30">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="E30">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="F30">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2260</v>
+        <v>2063</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K30">
-        <v>0.651685393258427</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L30">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M30">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2096,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2104,37 +2119,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.008809710258418167</v>
+        <v>0.01375515818431912</v>
       </c>
       <c r="C31">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D31">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="E31">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="F31">
-        <v>0.4399999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>5063</v>
+        <v>5019</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K31">
-        <v>0.6285714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2146,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2154,37 +2169,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.008415147265077139</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C32">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E32">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="F32">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>4242</v>
+        <v>2250</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K32">
-        <v>0.6222222222222222</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2196,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2204,141 +2219,237 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.008316430020283976</v>
+        <v>0.01266416510318949</v>
       </c>
       <c r="C33">
+        <v>54</v>
+      </c>
+      <c r="D33">
+        <v>118</v>
+      </c>
+      <c r="E33">
+        <v>0.54</v>
+      </c>
+      <c r="F33">
+        <v>0.46</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>4210</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K33">
+        <v>0.65</v>
+      </c>
+      <c r="L33">
+        <v>26</v>
+      </c>
+      <c r="M33">
+        <v>28</v>
+      </c>
+      <c r="N33">
+        <v>0.93</v>
+      </c>
+      <c r="O33">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.01206050695012265</v>
+      </c>
+      <c r="C34">
+        <v>59</v>
+      </c>
+      <c r="D34">
+        <v>163</v>
+      </c>
+      <c r="E34">
+        <v>0.64</v>
+      </c>
+      <c r="F34">
+        <v>0.36</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>4833</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L34">
+        <v>45</v>
+      </c>
+      <c r="M34">
+        <v>45</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.01138760016870519</v>
+      </c>
+      <c r="C35">
+        <v>27</v>
+      </c>
+      <c r="D35">
+        <v>101</v>
+      </c>
+      <c r="E35">
+        <v>0.73</v>
+      </c>
+      <c r="F35">
+        <v>0.27</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2344</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K35">
+        <v>0.578125</v>
+      </c>
+      <c r="L35">
+        <v>37</v>
+      </c>
+      <c r="M35">
+        <v>37</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D33">
-        <v>107</v>
-      </c>
-      <c r="E33">
-        <v>0.62</v>
-      </c>
-      <c r="F33">
-        <v>0.38</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>4889</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33">
-        <v>0.5254237288135594</v>
-      </c>
-      <c r="L33">
-        <v>31</v>
-      </c>
-      <c r="M33">
-        <v>31</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
+      <c r="B36">
+        <v>0.01010886469673406</v>
+      </c>
+      <c r="C36">
+        <v>26</v>
+      </c>
+      <c r="D36">
+        <v>127</v>
+      </c>
+      <c r="E36">
+        <v>0.8</v>
+      </c>
+      <c r="F36">
+        <v>0.2</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>2546</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36">
+        <v>0.5614035087719298</v>
+      </c>
+      <c r="L36">
+        <v>32</v>
+      </c>
+      <c r="M36">
+        <v>32</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.008959999999999999</v>
+      </c>
+      <c r="C37">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="J34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34">
-        <v>0.4794520547945205</v>
-      </c>
-      <c r="L34">
-        <v>35</v>
-      </c>
-      <c r="M34">
-        <v>35</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35">
-        <v>0.4426229508196721</v>
-      </c>
-      <c r="L35">
-        <v>27</v>
-      </c>
-      <c r="M35">
-        <v>27</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36">
-        <v>0.4375</v>
-      </c>
-      <c r="L36">
-        <v>28</v>
-      </c>
-      <c r="M36">
-        <v>28</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
+      <c r="D37">
+        <v>104</v>
+      </c>
+      <c r="E37">
+        <v>0.73</v>
+      </c>
+      <c r="F37">
+        <v>0.27</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>3097</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37">
+        <v>0.4931506849315068</v>
+      </c>
+      <c r="L37">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K37">
-        <v>0.4358974358974359</v>
-      </c>
-      <c r="L37">
-        <v>34</v>
-      </c>
       <c r="M37">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2350,21 +2461,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K38">
-        <v>0.1351351351351351</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2376,47 +2487,47 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K39">
-        <v>0.09446254071661238</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N39">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>278</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K40">
-        <v>0.06581352833638025</v>
+        <v>0.375</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2428,21 +2539,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>511</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K41">
-        <v>0.06009615384615385</v>
+        <v>0.172972972972973</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2454,319 +2565,475 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>391</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K42">
-        <v>0.05280804694048617</v>
+        <v>0.08441558441558442</v>
       </c>
       <c r="L42">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="N42">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>1130</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K43">
-        <v>0.0405616224648986</v>
+        <v>0.07932692307692307</v>
       </c>
       <c r="L43">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M43">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N43">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>615</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K44">
-        <v>0.03225806451612903</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="L44">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="N44">
-        <v>0.6899999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O44">
-        <v>0.3100000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>1230</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K45">
-        <v>0.03048780487804878</v>
+        <v>0.07447698744769875</v>
       </c>
       <c r="L45">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="M45">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="N45">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="O45">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>954</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K46">
-        <v>0.02893081761006289</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="L46">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="M46">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="N46">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O46">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>2316</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="K47">
-        <v>0.0286468149264983</v>
+        <v>0.03815640347563279</v>
       </c>
       <c r="L47">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="M47">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="N47">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="O47">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>2577</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K48">
-        <v>0.02337334175615919</v>
+        <v>0.03229398663697105</v>
       </c>
       <c r="L48">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N48">
-        <v>0.77</v>
+        <v>0.91</v>
       </c>
       <c r="O48">
-        <v>0.23</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>1546</v>
+        <v>869</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="K49">
-        <v>0.02231301068510371</v>
+        <v>0.03060380479735319</v>
       </c>
       <c r="L49">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M49">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N49">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="O49">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>3111</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K50">
-        <v>0.02103092783505155</v>
+        <v>0.02841357537490134</v>
       </c>
       <c r="L50">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="M50">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="N50">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="O50">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>2374</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K51">
-        <v>0.01331987891019173</v>
+        <v>0.02645947081058379</v>
       </c>
       <c r="L51">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M51">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="N51">
-        <v>0.62</v>
+        <v>0.83</v>
       </c>
       <c r="O51">
-        <v>0.38</v>
+        <v>0.17</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>4889</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K52">
-        <v>0.01164958061509786</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="L52">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M52">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="N52">
-        <v>0.58</v>
+        <v>0.73</v>
       </c>
       <c r="O52">
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>4242</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K53">
+        <v>0.02106542434676929</v>
+      </c>
+      <c r="L53">
+        <v>104</v>
+      </c>
+      <c r="M53">
+        <v>163</v>
+      </c>
+      <c r="N53">
+        <v>0.64</v>
+      </c>
+      <c r="O53">
+        <v>0.36</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>4833</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K54">
+        <v>0.02089930335655478</v>
+      </c>
+      <c r="L54">
+        <v>33</v>
+      </c>
+      <c r="M54">
+        <v>48</v>
+      </c>
+      <c r="N54">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O54">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K55">
+        <v>0.01724941724941725</v>
+      </c>
+      <c r="L55">
+        <v>37</v>
+      </c>
+      <c r="M55">
+        <v>50</v>
+      </c>
+      <c r="N55">
+        <v>0.74</v>
+      </c>
+      <c r="O55">
+        <v>0.26</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K56">
+        <v>0.01497426298549368</v>
+      </c>
+      <c r="L56">
+        <v>64</v>
+      </c>
+      <c r="M56">
+        <v>118</v>
+      </c>
+      <c r="N56">
+        <v>0.54</v>
+      </c>
+      <c r="O56">
+        <v>0.46</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K53">
-        <v>0.0111328125</v>
-      </c>
-      <c r="L53">
-        <v>57</v>
-      </c>
-      <c r="M53">
-        <v>102</v>
-      </c>
-      <c r="N53">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O53">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>5063</v>
+      <c r="K57">
+        <v>0.01491658488714426</v>
+      </c>
+      <c r="L57">
+        <v>76</v>
+      </c>
+      <c r="M57">
+        <v>146</v>
+      </c>
+      <c r="N57">
+        <v>0.52</v>
+      </c>
+      <c r="O57">
+        <v>0.48</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K58">
+        <v>0.01339072214251554</v>
+      </c>
+      <c r="L58">
+        <v>28</v>
+      </c>
+      <c r="M58">
+        <v>80</v>
+      </c>
+      <c r="N58">
+        <v>0.35</v>
+      </c>
+      <c r="O58">
+        <v>0.65</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K59">
+        <v>0.01272487933304081</v>
+      </c>
+      <c r="L59">
+        <v>29</v>
+      </c>
+      <c r="M59">
+        <v>59</v>
+      </c>
+      <c r="N59">
+        <v>0.49</v>
+      </c>
+      <c r="O59">
+        <v>0.51</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>2250</v>
       </c>
     </row>
   </sheetData>
